--- a/assets/resources/create.xlsx
+++ b/assets/resources/create.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -34,7 +34,7 @@
     <t>gain</t>
   </si>
   <si>
-    <t>gainType</t>
+    <t>skill</t>
   </si>
   <si>
     <t>merge</t>
@@ -64,7 +64,7 @@
     <t>基础产出</t>
   </si>
   <si>
-    <t>产出类型</t>
+    <t>技能类型</t>
   </si>
   <si>
     <t>合成</t>
@@ -118,10 +118,16 @@
     <t>减</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
     <t>乘</t>
   </si>
   <si>
     <t>除</t>
+  </si>
+  <si>
+    <t>1,4</t>
   </si>
   <si>
     <t>硬币</t>
@@ -138,8 +144,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -159,7 +165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,16 +178,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,9 +201,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,24 +254,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,6 +295,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -317,181 +323,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,17 +532,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,20 +556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +620,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -631,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,9 +1126,9 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1290,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="6">
         <v>2</v>
@@ -1326,7 +1332,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="6">
         <v>3</v>
@@ -1362,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="6">
         <v>4</v>
@@ -1398,7 +1404,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="6">
         <v>5</v>
@@ -1434,7 +1440,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6">
         <v>6</v>
@@ -1470,7 +1476,7 @@
         <v>32</v>
       </c>
       <c r="G10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="6">
         <v>7</v>
@@ -1506,7 +1512,7 @@
         <v>64</v>
       </c>
       <c r="G11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="6">
         <v>8</v>
@@ -1542,7 +1548,7 @@
         <v>128</v>
       </c>
       <c r="G12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="6">
         <v>9</v>
@@ -1578,7 +1584,7 @@
         <v>256</v>
       </c>
       <c r="G13" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1614,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="6">
         <v>0</v>
@@ -1649,11 +1655,11 @@
       <c r="F15" s="6">
         <v>0</v>
       </c>
-      <c r="G15" s="6">
-        <v>1</v>
+      <c r="G15" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="H15" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I15" s="6">
         <v>0</v>
@@ -1671,7 +1677,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="6">
         <v>12</v>
@@ -1686,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
@@ -1698,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L16" s="7"/>
     </row>
@@ -1707,7 +1713,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="6">
         <v>13</v>
@@ -1721,11 +1727,11 @@
       <c r="F17" s="6">
         <v>0</v>
       </c>
-      <c r="G17" s="6">
-        <v>1</v>
+      <c r="G17" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="H17" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I17" s="6">
         <v>0</v>
@@ -1734,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L17" s="7"/>
     </row>
@@ -1743,7 +1749,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="6">
         <v>14</v>
@@ -1758,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H18" s="6">
         <v>0</v>
@@ -1767,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L18" s="7"/>
     </row>
@@ -1779,7 +1785,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="6">
         <v>15</v>
@@ -1794,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H19" s="6">
         <v>0</v>
@@ -1803,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7"/>
     </row>
@@ -1815,7 +1821,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="6">
         <v>16</v>
@@ -1842,7 +1848,7 @@
         <v>10</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L20" s="7"/>
     </row>

--- a/assets/resources/create.xlsx
+++ b/assets/resources/create.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>大富翁</t>
+  </si>
+  <si>
+    <t>贷款</t>
+  </si>
+  <si>
+    <t>100,10,15</t>
   </si>
 </sst>
 </file>
@@ -144,8 +150,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -162,6 +168,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -187,13 +200,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -208,16 +214,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,7 +230,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,18 +244,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,8 +275,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,28 +313,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -323,13 +329,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,61 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,97 +473,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,6 +562,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -574,8 +589,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,6 +610,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -609,26 +635,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -637,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,7 +655,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,124 +664,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,9 +1132,9 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1856,8 +1862,8 @@
       <c r="A21" s="5">
         <v>17</v>
       </c>
-      <c r="B21" s="6">
-        <v>6</v>
+      <c r="B21" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="6">
         <v>17</v>
@@ -1869,10 +1875,10 @@
         <v>9</v>
       </c>
       <c r="F21" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G21" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H21" s="6">
         <v>11</v>
@@ -1880,11 +1886,11 @@
       <c r="I21" s="6">
         <v>12</v>
       </c>
-      <c r="J21" s="6">
-        <v>13</v>
-      </c>
-      <c r="K21" s="6">
-        <v>14</v>
+      <c r="J21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="L21" s="7"/>
     </row>
